--- a/back_end3.0/financial_products_viewer/input/客户G（理财客户）.xlsx
+++ b/back_end3.0/financial_products_viewer/input/客户G（理财客户）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\back_end3.0\financial_products_viewer\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhinuo\financial_products_viewer1008\financial_products_viewer\financial_products_viewer\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349F41A8-A916-477F-B8A9-1DAD792DA9CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A689B203-93B9-401C-ABEF-9D71A647C6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="487" yWindow="4012" windowWidth="21646" windowHeight="10388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,11 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>160101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,19 +420,19 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.9296875" style="4"/>
+    <col min="4" max="4" width="11.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.9140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -443,10 +443,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -460,7 +460,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -488,7 +488,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -502,7 +502,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1000000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>0.05</v>
